--- a/ave_aa_dis_standard_comp.xlsx
+++ b/ave_aa_dis_standard_comp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\git\sequence_correlation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FD04B-B152-4912-8728-C06BC1294E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2BF869-C097-46C5-AC7B-3814ECD8C5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>M</t>
   </si>
@@ -160,27 +171,6 @@
   </si>
   <si>
     <t>Viruses_Dif_GC_Perc</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Mean_Code_Perc</t>
-  </si>
-  <si>
-    <t>Mean_Code</t>
-  </si>
-  <si>
-    <t>Mean_GC</t>
-  </si>
-  <si>
-    <t>Mean_GC_Perc</t>
   </si>
 </sst>
 </file>
@@ -220,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,18 +488,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -570,17 +562,8 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -665,7 +648,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -730,7 +713,7 @@
         <v>5.8904219142141001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -795,7 +778,7 @@
         <v>9.3479203344307496E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -879,20 +862,8 @@
         <f t="shared" si="3"/>
         <v>3.4845780857858999E-2</v>
       </c>
-      <c r="V5">
-        <f>AVERAGE(B5:U5)</f>
-        <v>1.760045309710951E-2</v>
-      </c>
-      <c r="W5">
-        <f>MIN(B5:U5)</f>
-        <v>3.5622176891060564E-4</v>
-      </c>
-      <c r="X5">
-        <f>MAX(B5:U5)</f>
-        <v>4.8896793558030102E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -976,117 +947,93 @@
         <f t="shared" si="4"/>
         <v>45.653216863155322</v>
       </c>
-      <c r="V6">
-        <f>AVERAGE(B6:U6)</f>
-        <v>39.081969079765351</v>
-      </c>
-      <c r="W6">
-        <f t="shared" ref="W6:W8" si="5">MIN(B6:U6)</f>
-        <v>0.37924937013670829</v>
-      </c>
-      <c r="X6">
-        <f t="shared" ref="X6:X8" si="6">MAX(B6:U6)</f>
-        <v>93.501813478192375</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7">
-        <f>ABS(B3-B4)</f>
+        <f t="shared" ref="B7:U7" si="5">ABS(B3-B4)</f>
         <v>8.3093438947555998E-3</v>
       </c>
       <c r="C7">
-        <f>ABS(C3-C4)</f>
+        <f t="shared" si="5"/>
         <v>4.4683683893771003E-3</v>
       </c>
       <c r="D7">
-        <f>ABS(D3-D4)</f>
+        <f t="shared" si="5"/>
         <v>1.9820559778731102E-2</v>
       </c>
       <c r="E7">
-        <f>ABS(E3-E4)</f>
+        <f t="shared" si="5"/>
         <v>3.0264372789696396E-2</v>
       </c>
       <c r="F7">
-        <f>ABS(F3-F4)</f>
+        <f t="shared" si="5"/>
         <v>4.8987059109927601E-2</v>
       </c>
       <c r="G7">
-        <f>ABS(G3-G4)</f>
+        <f t="shared" si="5"/>
         <v>7.1430006434080456E-4</v>
       </c>
       <c r="H7">
-        <f>ABS(H3-H4)</f>
+        <f t="shared" si="5"/>
         <v>1.3847363574890401E-2</v>
       </c>
       <c r="I7">
-        <f>ABS(I3-I4)</f>
+        <f t="shared" si="5"/>
         <v>2.3076567197950801E-2</v>
       </c>
       <c r="J7">
-        <f>ABS(J3-J4)</f>
+        <f t="shared" si="5"/>
         <v>6.9532461991069633E-4</v>
       </c>
       <c r="K7">
-        <f>ABS(K3-K4)</f>
+        <f t="shared" si="5"/>
         <v>9.5406618546816993E-3</v>
       </c>
       <c r="L7">
-        <f>ABS(L3-L4)</f>
-        <v>1.1034742518750001E-4</v>
-      </c>
-      <c r="M7">
-        <f>ABS(M3-M4)</f>
-        <v>1.7857109606488793E-2</v>
-      </c>
-      <c r="N7">
-        <f>ABS(N3-N4)</f>
-        <v>1.089789864859779E-2</v>
-      </c>
-      <c r="O7">
-        <f>ABS(O3-O4)</f>
-        <v>7.4058214264164923E-3</v>
-      </c>
-      <c r="P7">
-        <f>ABS(P3-P4)</f>
-        <v>2.5008407265977806E-2</v>
-      </c>
-      <c r="Q7">
-        <f>ABS(Q3-Q4)</f>
-        <v>1.2347715308684004E-2</v>
-      </c>
-      <c r="R7">
-        <f>ABS(R3-R4)</f>
-        <v>1.7724153771635193E-2</v>
-      </c>
-      <c r="S7">
-        <f>ABS(S3-S4)</f>
-        <v>3.7734579495725951E-3</v>
-      </c>
-      <c r="T7">
-        <f>ABS(T3-T4)</f>
-        <v>4.1049436140630002E-2</v>
-      </c>
-      <c r="U7">
-        <f>ABS(U3-U4)</f>
-        <v>3.4574984202166495E-2</v>
-      </c>
-      <c r="V7">
-        <f>AVERAGE(B7:U7)</f>
-        <v>1.6523662650980948E-2</v>
-      </c>
-      <c r="W7">
         <f t="shared" si="5"/>
         <v>1.1034742518750001E-4</v>
       </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>4.8987059109927601E-2</v>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>1.7857109606488793E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>1.089789864859779E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>7.4058214264164923E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>2.5008407265977806E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>1.2347715308684004E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>1.7724153771635193E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>3.7734579495725951E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>4.1049436140630002E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>3.4574984202166495E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1095,95 +1042,83 @@
         <v>41.669220950182542</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:U8" si="7">C7/((C3+C4)/2)*100</f>
+        <f t="shared" ref="C8:U8" si="6">C7/((C3+C4)/2)*100</f>
         <v>34.008385904902134</v>
       </c>
       <c r="D8">
-        <f t="shared" si="7"/>
-        <v>93.27561667027193</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="7"/>
-        <v>65.377224013604604</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="7"/>
-        <v>88.021897704380066</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="7"/>
-        <v>1.9887320430791999</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="7"/>
-        <v>57.135391512698789</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="7"/>
-        <v>48.99640101348399</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="7"/>
-        <v>1.9746500872192287</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="7"/>
-        <v>36.153381970818934</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="7"/>
-        <v>0.31079371878026107</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="7"/>
-        <v>27.787784090240443</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="7"/>
-        <v>15.026138594615743</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="7"/>
-        <v>10.463120455258965</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="7"/>
-        <v>45.825501966302106</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="7"/>
-        <v>21.992307209004725</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="7"/>
-        <v>24.899928172270112</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="7"/>
-        <v>3.9309740145896792</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="7"/>
-        <v>52.822286501241621</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="7"/>
-        <v>45.378931169814436</v>
-      </c>
-      <c r="V8">
-        <f>AVERAGE(B8:U8)</f>
-        <v>35.851933388137979</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="5"/>
-        <v>0.31079371878026107</v>
-      </c>
-      <c r="X8">
         <f t="shared" si="6"/>
         <v>93.27561667027193</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>65.377224013604604</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>88.021897704380066</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>1.9887320430791999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>57.135391512698789</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>48.99640101348399</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>1.9746500872192287</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>36.153381970818934</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0.31079371878026107</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>27.787784090240443</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>15.026138594615743</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
+        <v>10.463120455258965</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>45.825501966302106</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>21.992307209004725</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>24.899928172270112</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>3.9309740145896792</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>52.822286501241621</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>45.378931169814436</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1248,7 +1183,7 @@
         <v>5.7579736152838901E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1313,104 +1248,92 @@
         <v>9.0005017495050701E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11">
-        <f>ABS(B2-B9)</f>
+        <f t="shared" ref="B11:U11" si="7">ABS(B2-B9)</f>
         <v>8.0400162262765015E-3</v>
       </c>
       <c r="C11">
-        <f>ABS(C2-C9)</f>
+        <f t="shared" si="7"/>
         <v>2.7473014206368003E-3</v>
       </c>
       <c r="D11">
-        <f>ABS(D2-D9)</f>
+        <f t="shared" si="7"/>
         <v>2.0235423375699502E-2</v>
       </c>
       <c r="E11">
-        <f>ABS(E2-E9)</f>
+        <f t="shared" si="7"/>
         <v>2.4758756244582202E-2</v>
       </c>
       <c r="F11">
-        <f>ABS(F2-F9)</f>
+        <f t="shared" si="7"/>
         <v>3.2410357108101695E-2</v>
       </c>
       <c r="G11">
-        <f>ABS(G2-G9)</f>
+        <f t="shared" si="7"/>
         <v>6.8209949060680994E-3</v>
       </c>
       <c r="H11">
-        <f>ABS(H2-H9)</f>
+        <f t="shared" si="7"/>
         <v>1.00084836671884E-2</v>
       </c>
       <c r="I11">
-        <f>ABS(I2-I9)</f>
+        <f t="shared" si="7"/>
         <v>1.7394652175802598E-2</v>
       </c>
       <c r="J11">
-        <f>ABS(J2-J9)</f>
+        <f t="shared" si="7"/>
         <v>3.9527256647140033E-3</v>
       </c>
       <c r="K11">
-        <f>ABS(K2-K9)</f>
+        <f t="shared" si="7"/>
         <v>3.7099895913709005E-3</v>
       </c>
       <c r="L11">
-        <f>ABS(L2-L9)</f>
+        <f t="shared" si="7"/>
         <v>2.7299284004170983E-3</v>
       </c>
       <c r="M11">
-        <f>ABS(M2-M9)</f>
+        <f t="shared" si="7"/>
         <v>1.3593240906265402E-2</v>
       </c>
       <c r="N11">
-        <f>ABS(N2-N9)</f>
+        <f t="shared" si="7"/>
         <v>3.6302685621147093E-2</v>
       </c>
       <c r="O11">
-        <f>ABS(O2-O9)</f>
+        <f t="shared" si="7"/>
         <v>1.2843225433327193E-2</v>
       </c>
       <c r="P11">
-        <f>ABS(P2-P9)</f>
+        <f t="shared" si="7"/>
         <v>1.6902143102385497E-2</v>
       </c>
       <c r="Q11">
-        <f>ABS(Q2-Q9)</f>
+        <f t="shared" si="7"/>
         <v>9.5490880235885034E-3</v>
       </c>
       <c r="R11">
-        <f>ABS(R2-R9)</f>
+        <f t="shared" si="7"/>
         <v>1.04040333667961E-2</v>
       </c>
       <c r="S11">
-        <f>ABS(S2-S9)</f>
+        <f t="shared" si="7"/>
         <v>8.6566122870510021E-3</v>
       </c>
       <c r="T11">
-        <f>ABS(T2-T9)</f>
+        <f t="shared" si="7"/>
         <v>3.3669657694425398E-2</v>
       </c>
       <c r="U11">
-        <f>ABS(U2-U9)</f>
+        <f t="shared" si="7"/>
         <v>3.6170263847161099E-2</v>
       </c>
-      <c r="V11">
-        <f>AVERAGE(B11:U11)</f>
-        <v>1.5544978953150254E-2</v>
-      </c>
-      <c r="W11">
-        <f t="shared" ref="W11:W14" si="8">MIN(B11:U11)</f>
-        <v>2.7299284004170983E-3</v>
-      </c>
-      <c r="X11">
-        <f t="shared" ref="X11:X14" si="9">MAX(B11:U11)</f>
-        <v>3.6302685621147093E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1419,192 +1342,168 @@
         <v>40.926510083238263</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:U12" si="10">C11/((C2+C9)/2)*100</f>
+        <f t="shared" ref="C12:U12" si="8">C11/((C2+C9)/2)*100</f>
         <v>19.2774828880654</v>
       </c>
       <c r="D12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>95.755949742862995</v>
       </c>
       <c r="E12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>56.747900864377584</v>
       </c>
       <c r="F12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>68.296776233149586</v>
       </c>
       <c r="G12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>19.679448961489197</v>
       </c>
       <c r="H12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>38.13371899463403</v>
       </c>
       <c r="I12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>43.543971222321318</v>
       </c>
       <c r="J12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.89635376179273</v>
       </c>
       <c r="K12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.206736670003711</v>
       </c>
       <c r="L12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.1347670409554897</v>
       </c>
       <c r="M12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>25.326682502786241</v>
       </c>
       <c r="N12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>45.011879971312446</v>
       </c>
       <c r="O12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>18.63453991729072</v>
       </c>
       <c r="P12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>31.271930059435793</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16.54224788720515</v>
       </c>
       <c r="R12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>15.367390628036324</v>
       </c>
       <c r="S12">
-        <f t="shared" si="10"/>
-        <v>8.8262253167210272</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="10"/>
-        <v>43.775053984528846</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="10"/>
-        <v>47.803247090353899</v>
-      </c>
-      <c r="V12">
-        <f>AVERAGE(B12:U12)</f>
-        <v>33.357940691028034</v>
-      </c>
-      <c r="W12">
         <f t="shared" si="8"/>
         <v>8.8262253167210272</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="9"/>
-        <v>95.755949742862995</v>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>43.775053984528846</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>47.803247090353899</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13">
-        <f>ABS(B9-B10)</f>
+        <f t="shared" ref="B13:U13" si="9">ABS(B9-B10)</f>
         <v>9.5315545694691015E-3</v>
       </c>
       <c r="C13">
-        <f>ABS(C9-C10)</f>
+        <f t="shared" si="9"/>
         <v>2.9905122621796988E-3</v>
       </c>
       <c r="D13">
-        <f>ABS(D9-D10)</f>
+        <f t="shared" si="9"/>
         <v>1.8987095874049703E-2</v>
       </c>
       <c r="E13">
-        <f>ABS(E9-E10)</f>
+        <f t="shared" si="9"/>
         <v>2.6007083746232E-2</v>
       </c>
       <c r="F13">
-        <f>ABS(F9-F10)</f>
+        <f t="shared" si="9"/>
         <v>3.3658684609751494E-2</v>
       </c>
       <c r="G13">
-        <f>ABS(G9-G10)</f>
+        <f t="shared" si="9"/>
         <v>6.788649936487097E-3</v>
       </c>
       <c r="H13">
-        <f>ABS(H9-H10)</f>
+        <f t="shared" si="9"/>
         <v>8.7601561655386018E-3</v>
       </c>
       <c r="I13">
-        <f>ABS(I9-I10)</f>
+        <f t="shared" si="9"/>
         <v>1.7362307206221596E-2</v>
       </c>
       <c r="J13">
-        <f>ABS(J9-J10)</f>
+        <f t="shared" si="9"/>
         <v>3.9203806951330009E-3</v>
       </c>
       <c r="K13">
-        <f>ABS(K9-K10)</f>
+        <f t="shared" si="9"/>
         <v>4.9583170930206991E-3</v>
       </c>
       <c r="L13">
-        <f>ABS(L9-L10)</f>
+        <f t="shared" si="9"/>
         <v>2.7622733699981007E-3</v>
       </c>
       <c r="M13">
-        <f>ABS(M9-M10)</f>
+        <f t="shared" si="9"/>
         <v>1.2037012623910701E-2</v>
       </c>
       <c r="N13">
-        <f>ABS(N9-N10)</f>
+        <f t="shared" si="9"/>
         <v>2.0020113897112987E-2</v>
       </c>
       <c r="O13">
-        <f>ABS(O9-O10)</f>
+        <f t="shared" si="9"/>
         <v>3.4393462907069128E-3</v>
       </c>
       <c r="P13">
-        <f>ABS(P9-P10)</f>
+        <f t="shared" si="9"/>
         <v>3.3184714826419603E-2</v>
       </c>
       <c r="Q13">
-        <f>ABS(Q9-Q10)</f>
+        <f t="shared" si="9"/>
         <v>7.0524330202890034E-3</v>
       </c>
       <c r="R13">
-        <f>ABS(R9-R10)</f>
+        <f t="shared" si="9"/>
         <v>1.29006883700956E-2</v>
       </c>
       <c r="S13">
-        <f>ABS(S9-S10)</f>
+        <f t="shared" si="9"/>
         <v>1.11209223207695E-2</v>
       </c>
       <c r="T13">
-        <f>ABS(T9-T10)</f>
-        <v>4.87039019168094E-2</v>
-      </c>
-      <c r="U13">
-        <f>ABS(U9-U10)</f>
-        <v>3.2425281342211801E-2</v>
-      </c>
-      <c r="V13">
-        <f>AVERAGE(B13:U13)</f>
-        <v>1.583057150682033E-2</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="8"/>
-        <v>2.7622733699981007E-3</v>
-      </c>
-      <c r="X13">
         <f t="shared" si="9"/>
         <v>4.87039019168094E-2</v>
       </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>3.2425281342211801E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1613,95 +1512,83 @@
         <v>50.433536498223887</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:U14" si="11">C13/((C9+C10)/2)*100</f>
+        <f t="shared" ref="C14:U14" si="10">C13/((C9+C10)/2)*100</f>
         <v>20.806523936270267</v>
       </c>
       <c r="D14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>92.583287259021077</v>
       </c>
       <c r="E14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>60.474256729871342</v>
       </c>
       <c r="F14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>71.872635583871485</v>
       </c>
       <c r="G14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>19.576994990174036</v>
       </c>
       <c r="H14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>34.190519229402099</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43.445413505627748</v>
       </c>
       <c r="J14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.793266240769396</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.265364011692228</v>
       </c>
       <c r="L14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9.2379991594601201</v>
       </c>
       <c r="M14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>22.106650681762105</v>
       </c>
       <c r="N14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>22.547044947767152</v>
       </c>
       <c r="O14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.4630377965803678</v>
       </c>
       <c r="P14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>53.360026483529502</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.487237239704543</v>
       </c>
       <c r="R14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>19.413050695820232</v>
       </c>
       <c r="S14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.48308135263353</v>
       </c>
       <c r="T14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>57.683973790141707</v>
       </c>
       <c r="U14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>43.941234498480284</v>
       </c>
-      <c r="V14">
-        <f>AVERAGE(B14:U14)</f>
-        <v>33.858256731540166</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="8"/>
-        <v>4.4630377965803678</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="9"/>
-        <v>92.583287259021077</v>
-      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1766,7 +1653,7 @@
         <v>8.0772277313626295E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1831,104 +1718,92 @@
         <v>9.6352604373777601E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17">
-        <f>ABS(B2-B15)</f>
+        <f t="shared" ref="B17:U17" si="11">ABS(B2-B15)</f>
         <v>7.8683999593366985E-3</v>
       </c>
       <c r="C17">
-        <f>ABS(C2-C15)</f>
+        <f t="shared" si="11"/>
         <v>2.1399253661173005E-3</v>
       </c>
       <c r="D17">
-        <f>ABS(D2-D15)</f>
+        <f t="shared" si="11"/>
         <v>1.21666028758473E-2</v>
       </c>
       <c r="E17">
-        <f>ABS(E2-E15)</f>
+        <f t="shared" si="11"/>
         <v>2.2310697792248403E-2</v>
       </c>
       <c r="F17">
-        <f>ABS(F2-F15)</f>
+        <f t="shared" si="11"/>
         <v>3.1910473628906505E-2</v>
       </c>
       <c r="G17">
-        <f>ABS(G2-G15)</f>
+        <f t="shared" si="11"/>
         <v>8.4905618851088965E-3</v>
       </c>
       <c r="H17">
-        <f>ABS(H2-H15)</f>
+        <f t="shared" si="11"/>
         <v>6.0114683902992017E-3</v>
       </c>
       <c r="I17">
-        <f>ABS(I2-I15)</f>
+        <f t="shared" si="11"/>
         <v>2.5805666784335303E-2</v>
       </c>
       <c r="J17">
-        <f>ABS(J2-J15)</f>
+        <f t="shared" si="11"/>
         <v>1.1135586247792102E-2</v>
       </c>
       <c r="K17">
-        <f>ABS(K2-K15)</f>
+        <f t="shared" si="11"/>
         <v>9.1080645756993969E-3</v>
       </c>
       <c r="L17">
-        <f>ABS(L2-L15)</f>
+        <f t="shared" si="11"/>
         <v>1.1719339262008001E-3</v>
       </c>
       <c r="M17">
-        <f>ABS(M2-M15)</f>
+        <f t="shared" si="11"/>
         <v>5.1913433802701012E-3</v>
       </c>
       <c r="N17">
-        <f>ABS(N2-N15)</f>
+        <f t="shared" si="11"/>
         <v>1.0575612973662704E-2</v>
       </c>
       <c r="O17">
-        <f>ABS(O2-O15)</f>
+        <f t="shared" si="11"/>
         <v>1.6144676227390631E-4</v>
       </c>
       <c r="P17">
-        <f>ABS(P2-P15)</f>
+        <f t="shared" si="11"/>
         <v>1.0221518118431402E-2</v>
       </c>
       <c r="Q17">
-        <f>ABS(Q2-Q15)</f>
+        <f t="shared" si="11"/>
         <v>6.8296103969465033E-3</v>
       </c>
       <c r="R17">
-        <f>ABS(R2-R15)</f>
+        <f t="shared" si="11"/>
         <v>9.0415490951639699E-4</v>
       </c>
       <c r="S17">
-        <f>ABS(S2-S15)</f>
+        <f t="shared" si="11"/>
         <v>1.4858889099289979E-3</v>
       </c>
       <c r="T17">
-        <f>ABS(T2-T15)</f>
+        <f t="shared" si="11"/>
         <v>3.6554116048862897E-2</v>
       </c>
       <c r="U17">
-        <f>ABS(U2-U15)</f>
+        <f t="shared" si="11"/>
         <v>1.2977722686373705E-2</v>
       </c>
-      <c r="V17">
-        <f>AVERAGE(B17:U17)</f>
-        <v>1.1151039780907928E-2</v>
-      </c>
-      <c r="W17">
-        <f t="shared" ref="W17:W20" si="12">MIN(B17:U17)</f>
-        <v>1.6144676227390631E-4</v>
-      </c>
-      <c r="X17">
-        <f t="shared" ref="X17:X20" si="13">MAX(B17:U17)</f>
-        <v>3.6554116048862897E-2</v>
-      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1937,192 +1812,168 @@
         <v>40.228639042066369</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:U18" si="14">C17/((C2+C15)/2)*100</f>
+        <f t="shared" ref="C18:U18" si="12">C17/((C2+C15)/2)*100</f>
         <v>14.702300787827816</v>
       </c>
       <c r="D18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>48.344056117798182</v>
       </c>
       <c r="E18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>52.61293297432951</v>
       </c>
       <c r="F18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>67.599435533678303</v>
       </c>
       <c r="G18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>23.920255480862426</v>
       </c>
       <c r="H18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>21.283854329351517</v>
       </c>
       <c r="I18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>58.446230517367013</v>
       </c>
       <c r="J18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>30.245121456138317</v>
       </c>
       <c r="K18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>25.43865591024581</v>
       </c>
       <c r="L18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.8218518900972742</v>
       </c>
       <c r="M18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>10.493779855641836</v>
       </c>
       <c r="N18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>15.601055000528968</v>
       </c>
       <c r="O18">
-        <f t="shared" si="14"/>
-        <v>0.25798161726358293</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="14"/>
-        <v>17.81086132325435</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="14"/>
-        <v>11.558919996604679</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="14"/>
-        <v>1.4362590498561172</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="14"/>
-        <v>1.5724866216198556</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="14"/>
-        <v>48.433405525248872</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="14"/>
-        <v>14.872282078982973</v>
-      </c>
-      <c r="V18">
-        <f>AVERAGE(B18:U18)</f>
-        <v>25.434018255438186</v>
-      </c>
-      <c r="W18">
         <f t="shared" si="12"/>
         <v>0.25798161726358293</v>
       </c>
-      <c r="X18">
-        <f t="shared" si="13"/>
-        <v>67.599435533678303</v>
+      <c r="P18">
+        <f t="shared" si="12"/>
+        <v>17.81086132325435</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="12"/>
+        <v>11.558919996604679</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="12"/>
+        <v>1.4362590498561172</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="12"/>
+        <v>1.5724866216198556</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="12"/>
+        <v>48.433405525248872</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="12"/>
+        <v>14.872282078982973</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19">
-        <f>ABS(B15-B16)</f>
+        <f t="shared" ref="B19:U19" si="13">ABS(B15-B16)</f>
         <v>7.1780115384489987E-3</v>
       </c>
       <c r="C19">
-        <f>ABS(C15-C16)</f>
+        <f t="shared" si="13"/>
         <v>2.3170717364888009E-3</v>
       </c>
       <c r="D19">
-        <f>ABS(D15-D16)</f>
+        <f t="shared" si="13"/>
         <v>1.30341376671065E-2</v>
       </c>
       <c r="E19">
-        <f>ABS(E15-E16)</f>
+        <f t="shared" si="13"/>
         <v>2.1443163000989203E-2</v>
       </c>
       <c r="F19">
-        <f>ABS(F15-F16)</f>
+        <f t="shared" si="13"/>
         <v>3.1042938837647305E-2</v>
       </c>
       <c r="G19">
-        <f>ABS(G15-G16)</f>
+        <f t="shared" si="13"/>
         <v>4.927933398213194E-3</v>
       </c>
       <c r="H19">
-        <f>ABS(H15-H16)</f>
+        <f t="shared" si="13"/>
         <v>6.8790031815584018E-3</v>
       </c>
       <c r="I19">
-        <f>ABS(I15-I16)</f>
+        <f t="shared" si="13"/>
         <v>2.22430382974396E-2</v>
       </c>
       <c r="J19">
-        <f>ABS(J15-J16)</f>
+        <f t="shared" si="13"/>
         <v>7.5729577608963997E-3</v>
       </c>
       <c r="K19">
-        <f>ABS(K15-K16)</f>
+        <f t="shared" si="13"/>
         <v>8.2405297844401967E-3</v>
       </c>
       <c r="L19">
-        <f>ABS(L15-L16)</f>
+        <f t="shared" si="13"/>
         <v>4.7345624130965026E-3</v>
       </c>
       <c r="M19">
-        <f>ABS(M15-M16)</f>
+        <f t="shared" si="13"/>
         <v>1.2435251726335972E-3</v>
       </c>
       <c r="N19">
-        <f>ABS(N15-N16)</f>
+        <f t="shared" si="13"/>
         <v>8.3890048855450039E-3</v>
       </c>
       <c r="O19">
-        <f>ABS(O15-O16)</f>
+        <f t="shared" si="13"/>
         <v>2.0251613258437939E-3</v>
       </c>
       <c r="P19">
-        <f>ABS(P15-P16)</f>
+        <f t="shared" si="13"/>
         <v>1.2408126206549103E-2</v>
       </c>
       <c r="Q19">
-        <f>ABS(Q15-Q16)</f>
+        <f t="shared" si="13"/>
         <v>8.5646799794649037E-3</v>
       </c>
       <c r="R19">
-        <f>ABS(R15-R16)</f>
+        <f t="shared" si="13"/>
         <v>8.3091467300200339E-4</v>
       </c>
       <c r="S19">
-        <f>ABS(S15-S16)</f>
+        <f t="shared" si="13"/>
         <v>3.811809159485105E-3</v>
       </c>
       <c r="T19">
-        <f>ABS(T15-T16)</f>
-        <v>3.9608258928239798E-2</v>
-      </c>
-      <c r="U19">
-        <f>ABS(U15-U16)</f>
-        <v>1.5580327060151306E-2</v>
-      </c>
-      <c r="V19">
-        <f>AVERAGE(B19:U19)</f>
-        <v>1.1103757750361983E-2</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="12"/>
-        <v>8.3091467300200339E-4</v>
-      </c>
-      <c r="X19">
         <f t="shared" si="13"/>
         <v>3.9608258928239798E-2</v>
       </c>
+      <c r="U19">
+        <f t="shared" si="13"/>
+        <v>1.5580327060151306E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2131,95 +1982,83 @@
         <v>36.0624466632337</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:U20" si="15">C19/((C15+C16)/2)*100</f>
+        <f t="shared" ref="C20:U20" si="14">C19/((C15+C16)/2)*100</f>
         <v>15.82309046086843</v>
       </c>
       <c r="D20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50.913673558285822</v>
       </c>
       <c r="E20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50.055101171909214</v>
       </c>
       <c r="F20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>65.162862558485273</v>
       </c>
       <c r="G20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>13.219912853155853</v>
       </c>
       <c r="H20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>23.987011708471222</v>
       </c>
       <c r="I20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>48.42375322578804</v>
       </c>
       <c r="J20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>19.61951526190828</v>
       </c>
       <c r="K20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>22.740149392119488</v>
       </c>
       <c r="L20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.592423290116194</v>
       </c>
       <c r="M20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.3601629814178571</v>
       </c>
       <c r="N20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>12.178962883856087</v>
       </c>
       <c r="O20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.1805139516625549</v>
       </c>
       <c r="P20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>21.216802739629237</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>14.285721496983323</v>
       </c>
       <c r="R20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.3019738662762805</v>
       </c>
       <c r="S20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.923964158527081</v>
       </c>
       <c r="T20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>51.439288347437753</v>
       </c>
       <c r="U20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>17.592477027194864</v>
       </c>
-      <c r="V20">
-        <f>AVERAGE(B20:U20)</f>
-        <v>24.403990379866332</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="12"/>
-        <v>1.3019738662762805</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="13"/>
-        <v>65.162862558485273</v>
-      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2284,7 +2123,7 @@
         <v>7.3282052874726E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2349,104 +2188,92 @@
         <v>9.5588330867699994E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <f>ABS(B2-B21)</f>
+        <f t="shared" ref="B23:U23" si="15">ABS(B2-B21)</f>
         <v>8.3645156958625996E-3</v>
       </c>
       <c r="C23">
-        <f>ABS(C2-C21)</f>
+        <f t="shared" si="15"/>
         <v>2.3392015922479859E-4</v>
       </c>
       <c r="D23">
-        <f>ABS(D2-D21)</f>
+        <f t="shared" si="15"/>
         <v>1.14953057781421E-2</v>
       </c>
       <c r="E23">
-        <f>ABS(E2-E21)</f>
+        <f t="shared" si="15"/>
         <v>2.2524948518922901E-2</v>
       </c>
       <c r="F23">
-        <f>ABS(F2-F21)</f>
+        <f t="shared" si="15"/>
         <v>2.7766584439597897E-2</v>
       </c>
       <c r="G23">
-        <f>ABS(G2-G21)</f>
+        <f t="shared" si="15"/>
         <v>9.6799629380730987E-3</v>
       </c>
       <c r="H23">
-        <f>ABS(H2-H21)</f>
+        <f t="shared" si="15"/>
         <v>8.2821833616841985E-3</v>
       </c>
       <c r="I23">
-        <f>ABS(I2-I21)</f>
+        <f t="shared" si="15"/>
         <v>2.85407357782975E-2</v>
       </c>
       <c r="J23">
-        <f>ABS(J2-J21)</f>
+        <f t="shared" si="15"/>
         <v>1.4935379504261499E-2</v>
       </c>
       <c r="K23">
-        <f>ABS(K2-K21)</f>
+        <f t="shared" si="15"/>
         <v>7.0909349139796976E-3</v>
       </c>
       <c r="L23">
-        <f>ABS(L2-L21)</f>
+        <f t="shared" si="15"/>
         <v>4.8433313297215966E-3</v>
       </c>
       <c r="M23">
-        <f>ABS(M2-M21)</f>
+        <f t="shared" si="15"/>
         <v>1.05730816739713E-2</v>
       </c>
       <c r="N23">
-        <f>ABS(N2-N21)</f>
+        <f t="shared" si="15"/>
         <v>3.8008472658908055E-3</v>
       </c>
       <c r="O23">
-        <f>ABS(O2-O21)</f>
+        <f t="shared" si="15"/>
         <v>1.874817881511899E-3</v>
       </c>
       <c r="P23">
-        <f>ABS(P2-P21)</f>
+        <f t="shared" si="15"/>
         <v>1.1581121101999999E-2</v>
       </c>
       <c r="Q23">
-        <f>ABS(Q2-Q21)</f>
+        <f t="shared" si="15"/>
         <v>1.3395942967903002E-3</v>
       </c>
       <c r="R23">
-        <f>ABS(R2-R21)</f>
+        <f t="shared" si="15"/>
         <v>2.432161756597398E-3</v>
       </c>
       <c r="S23">
-        <f>ABS(S2-S21)</f>
+        <f t="shared" si="15"/>
         <v>2.5249257769301009E-3</v>
       </c>
       <c r="T23">
-        <f>ABS(T2-T21)</f>
+        <f t="shared" si="15"/>
         <v>3.6345508652068398E-2</v>
       </c>
       <c r="U23">
-        <f>ABS(U2-U21)</f>
+        <f t="shared" si="15"/>
         <v>2.0467947125274E-2</v>
       </c>
-      <c r="V23">
-        <f>AVERAGE(B23:U23)</f>
-        <v>1.1734890397440103E-2</v>
-      </c>
-      <c r="W23">
-        <f t="shared" ref="W23:W26" si="16">MIN(B23:U23)</f>
-        <v>2.3392015922479859E-4</v>
-      </c>
-      <c r="X23">
-        <f t="shared" ref="X23:X26" si="17">MAX(B23:U23)</f>
-        <v>3.6345508652068398E-2</v>
-      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2455,192 +2282,168 @@
         <v>42.229549188890893</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:U24" si="18">C23/((C2+C21)/2)*100</f>
+        <f t="shared" ref="C24:U24" si="16">C23/((C2+C21)/2)*100</f>
         <v>1.4859659028595262</v>
       </c>
       <c r="D24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>45.075481594460079</v>
       </c>
       <c r="E24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>52.984327332841175</v>
       </c>
       <c r="F24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>61.521291875573233</v>
       </c>
       <c r="G24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>26.821745382102886</v>
       </c>
       <c r="H24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>30.551519316737547</v>
       </c>
       <c r="I24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>62.698824947548601</v>
       </c>
       <c r="J24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>38.575079246404577</v>
       </c>
       <c r="K24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>20.378904013129571</v>
       </c>
       <c r="L24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>14.383996853401934</v>
       </c>
       <c r="M24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>20.269879885285814</v>
       </c>
       <c r="N24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5.9018979246999885</v>
       </c>
       <c r="O24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.0453849476668218</v>
       </c>
       <c r="P24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>20.421857832707278</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.1665694676845622</v>
       </c>
       <c r="R24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>3.8171866867376294</v>
       </c>
       <c r="S24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2.7300173145330673</v>
       </c>
       <c r="T24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>48.09054408897093</v>
       </c>
       <c r="U24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>24.507807660874473</v>
       </c>
-      <c r="V24">
-        <f>AVERAGE(B24:U24)</f>
-        <v>26.382891573155529</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="16"/>
-        <v>1.4859659028595262</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="17"/>
-        <v>62.698824947548601</v>
-      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25">
-        <f>ABS(B21-B22)</f>
+        <f t="shared" ref="B25:U25" si="17">ABS(B21-B22)</f>
         <v>6.6526938359888002E-3</v>
       </c>
       <c r="C25">
-        <f>ABS(C21-C22)</f>
+        <f t="shared" si="17"/>
         <v>1.3329650631985993E-3</v>
       </c>
       <c r="D25">
-        <f>ABS(D21-D22)</f>
+        <f t="shared" si="17"/>
         <v>1.2108082734042101E-2</v>
       </c>
       <c r="E25">
-        <f>ABS(E21-E22)</f>
+        <f t="shared" si="17"/>
         <v>2.19121715630229E-2</v>
       </c>
       <c r="F25">
-        <f>ABS(F21-F22)</f>
+        <f t="shared" si="17"/>
         <v>2.7153807483697896E-2</v>
       </c>
       <c r="G25">
-        <f>ABS(G21-G22)</f>
+        <f t="shared" si="17"/>
         <v>5.7960172344959787E-4</v>
       </c>
       <c r="H25">
-        <f>ABS(H21-H22)</f>
+        <f t="shared" si="17"/>
         <v>8.8949603175841989E-3</v>
       </c>
       <c r="I25">
-        <f>ABS(I21-I22)</f>
+        <f t="shared" si="17"/>
         <v>1.9440374563674E-2</v>
       </c>
       <c r="J25">
-        <f>ABS(J21-J22)</f>
+        <f t="shared" si="17"/>
         <v>5.8350182896379985E-3</v>
       </c>
       <c r="K25">
-        <f>ABS(K21-K22)</f>
+        <f t="shared" si="17"/>
         <v>6.4781579580796972E-3</v>
       </c>
       <c r="L25">
-        <f>ABS(L21-L22)</f>
+        <f t="shared" si="17"/>
         <v>4.2570298849019042E-3</v>
       </c>
       <c r="M25">
-        <f>ABS(M21-M22)</f>
+        <f t="shared" si="17"/>
         <v>5.9158188954019017E-3</v>
       </c>
       <c r="N25">
-        <f>ABS(N21-N22)</f>
+        <f t="shared" si="17"/>
         <v>1.0030881750113504E-2</v>
       </c>
       <c r="O25">
-        <f>ABS(O21-O22)</f>
+        <f t="shared" si="17"/>
         <v>4.3552166027108E-3</v>
       </c>
       <c r="P25">
-        <f>ABS(P21-P22)</f>
+        <f t="shared" si="17"/>
         <v>5.3510866177772995E-3</v>
       </c>
       <c r="Q25">
-        <f>ABS(Q21-Q22)</f>
+        <f t="shared" si="17"/>
         <v>2.565148208590301E-3</v>
       </c>
       <c r="R25">
-        <f>ABS(R21-R22)</f>
+        <f t="shared" si="17"/>
         <v>1.2066078447973971E-3</v>
       </c>
       <c r="S25">
-        <f>ABS(S21-S22)</f>
+        <f t="shared" si="17"/>
         <v>1.2850840903354102E-2</v>
       </c>
       <c r="T25">
-        <f>ABS(T21-T22)</f>
-        <v>3.0728251123745692E-2</v>
-      </c>
-      <c r="U25">
-        <f>ABS(U21-U22)</f>
-        <v>2.2306277992973994E-2</v>
-      </c>
-      <c r="V25">
-        <f>AVERAGE(B25:U25)</f>
-        <v>1.0497749667837133E-2</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="16"/>
-        <v>5.7960172344959787E-4</v>
-      </c>
-      <c r="X25">
         <f t="shared" si="17"/>
         <v>3.0728251123745692E-2</v>
       </c>
+      <c r="U25">
+        <f t="shared" si="17"/>
+        <v>2.2306277992973994E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2649,432 +2452,80 @@
         <v>32.195903288145878</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:U26" si="19">C25/((C21+C22)/2)*100</f>
+        <f t="shared" ref="C26:U26" si="18">C25/((C21+C22)/2)*100</f>
         <v>8.7738722110977978</v>
       </c>
       <c r="D26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>46.914668455356271</v>
       </c>
       <c r="E26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>51.174109170998427</v>
       </c>
       <c r="F26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>59.757918776579508</v>
       </c>
       <c r="G26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.4261796553880224</v>
       </c>
       <c r="H26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>32.445245380391242</v>
       </c>
       <c r="I26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>38.825966855642179</v>
       </c>
       <c r="J26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13.485799604104159</v>
       </c>
       <c r="K26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>18.455314642299122</v>
       </c>
       <c r="L26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>11.137687736453586</v>
       </c>
       <c r="M26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9.7934307269059033</v>
       </c>
       <c r="N26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>16.367488348113067</v>
       </c>
       <c r="O26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7.4514925398565621</v>
       </c>
       <c r="P26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>9.9844095662057697</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4.1079849432201554</v>
       </c>
       <c r="R26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.8756867219799085</v>
       </c>
       <c r="S26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13.160036665618053</v>
       </c>
       <c r="T26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42.227339791043264</v>
       </c>
       <c r="U26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>26.418223845570498</v>
-      </c>
-      <c r="V26">
-        <f>AVERAGE(B26:U26)</f>
-        <v>22.298937946248468</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="16"/>
-        <v>1.4261796553880224</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="17"/>
-        <v>59.757918776579508</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <f>AVERAGE(B5,B11,B17,B23)</f>
-        <v>8.1859516811516996E-3</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:U28" si="20">AVERAGE(C5,C11,C17,C23)</f>
-        <v>2.4603279589072249E-3</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="20"/>
-        <v>1.5952039340079376E-2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="20"/>
-        <v>2.4942127448388099E-2</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="20"/>
-        <v>3.5246052183659046E-2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="20"/>
-        <v>7.5040076539672745E-3</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="20"/>
-        <v>9.5599411364899259E-3</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="20"/>
-        <v>2.4781958189666102E-2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="20"/>
-        <v>8.4096444047837768E-3</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="20"/>
-        <v>7.3849791219072983E-3</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="20"/>
-        <v>3.2362642633575484E-3</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="20"/>
-        <v>1.3918416565794175E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="20"/>
-        <v>1.6538592628748849E-2</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="20"/>
-        <v>6.715659377306624E-3</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="20"/>
-        <v>1.4783965895774425E-2</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="20"/>
-        <v>7.5616347824510773E-3</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="20"/>
-        <v>7.8209931751875225E-3</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="20"/>
-        <v>3.2559121857051766E-3</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="20"/>
-        <v>3.5782914520546799E-2</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="20"/>
-        <v>2.6115428629166951E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29">
-        <f>AVERAGE(B6,B12,B18,B24)</f>
-        <v>41.509175930589699</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:U29" si="21">AVERAGE(C6,C12,C18,C24)</f>
-        <v>17.762393343936694</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="21"/>
-        <v>70.669325233328408</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="21"/>
-        <v>56.865976246792769</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="21"/>
-        <v>71.301503828855047</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="21"/>
-        <v>21.325871365134606</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="21"/>
-        <v>36.842508616329141</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="21"/>
-        <v>56.406298108952313</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="21"/>
-        <v>22.912930058530691</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="21"/>
-        <v>23.364355166099664</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="21"/>
-        <v>9.9834837800799381</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="21"/>
-        <v>24.981558224434739</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="21"/>
-        <v>22.136876903836292</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="21"/>
-        <v>9.8584261379775384</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="21"/>
-        <v>27.145356394464116</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="21"/>
-        <v>13.136442242242682</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="21"/>
-        <v>11.308982350000852</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="21"/>
-        <v>3.3769946557526644</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="21"/>
-        <v>47.186500986255993</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="21"/>
-        <v>33.20913842334167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31">
-        <f>AVERAGE(B7,B13,B19,B25)</f>
-        <v>7.917900959665625E-3</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:U31" si="22">AVERAGE(C7,C13,C19,C25)</f>
-        <v>2.7772293628110498E-3</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="22"/>
-        <v>1.5987469013482351E-2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="22"/>
-        <v>2.4906697774985127E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="22"/>
-        <v>3.521062251025607E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="22"/>
-        <v>3.2526212806226733E-3</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="22"/>
-        <v>9.5953708098929016E-3</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="22"/>
-        <v>2.0530571816321501E-2</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="22"/>
-        <v>4.5059203413945238E-3</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="22"/>
-        <v>7.3044166725555731E-3</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="22"/>
-        <v>2.9660532732960019E-3</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="22"/>
-        <v>9.263366574608748E-3</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="22"/>
-        <v>1.2334474795342321E-2</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="22"/>
-        <v>4.3063864114194998E-3</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="22"/>
-        <v>1.8988083729180955E-2</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="22"/>
-        <v>7.6324941292570531E-3</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="22"/>
-        <v>8.1655911648825484E-3</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="22"/>
-        <v>7.8892575832953254E-3</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="22"/>
-        <v>4.0022462027356223E-2</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="22"/>
-        <v>2.6221717649375899E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32">
-        <f>AVERAGE(B8,B14,B20,B26)</f>
-        <v>40.090276849946505</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:U32" si="23">AVERAGE(C8,C14,C20,C26)</f>
-        <v>19.852968128284658</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="23"/>
-        <v>70.92181148573377</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="23"/>
-        <v>56.770172771595902</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="23"/>
-        <v>71.203828655829085</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="23"/>
-        <v>9.0529548854492781</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="23"/>
-        <v>36.939541957740836</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="23"/>
-        <v>44.922883650135489</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="23"/>
-        <v>11.718307798500266</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="23"/>
-        <v>23.153552504232444</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="23"/>
-        <v>8.8197259762025411</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="23"/>
-        <v>15.512007120081577</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="23"/>
-        <v>16.529908693588013</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="23"/>
-        <v>6.3895411858396125</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="23"/>
-        <v>32.596685188916652</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="23"/>
-        <v>13.218312722228186</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="23"/>
-        <v>11.872659864086632</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="23"/>
-        <v>8.1245140478420854</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="23"/>
-        <v>51.043222107466093</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="23"/>
-        <v>33.332716635265022</v>
       </c>
     </row>
   </sheetData>

--- a/ave_aa_dis_standard_comp.xlsx
+++ b/ave_aa_dis_standard_comp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Desktop\git\sequence_correlation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2BF869-C097-46C5-AC7B-3814ECD8C5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806CCCFD-1296-4241-ABA8-AA0DA03747ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>M</t>
   </si>
@@ -171,6 +160,42 @@
   </si>
   <si>
     <t>Viruses_Dif_GC_Perc</t>
+  </si>
+  <si>
+    <t>Mean aliphatic code</t>
+  </si>
+  <si>
+    <t>Mean aliphatic GC</t>
+  </si>
+  <si>
+    <t>Mean charged code</t>
+  </si>
+  <si>
+    <t>Mean charged GC</t>
+  </si>
+  <si>
+    <t>Mean aromatic code</t>
+  </si>
+  <si>
+    <t>Mean aromatic GC</t>
+  </si>
+  <si>
+    <t>Mean uncharged code</t>
+  </si>
+  <si>
+    <t>Mean uncharged GC</t>
+  </si>
+  <si>
+    <t>mean_code_perc</t>
+  </si>
+  <si>
+    <t>mean_gc_perc</t>
+  </si>
+  <si>
+    <t>&lt;30%?</t>
+  </si>
+  <si>
+    <t>mean_freq</t>
   </si>
 </sst>
 </file>
@@ -210,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
@@ -2528,6 +2553,528 @@
         <v>26.418223845570498</v>
       </c>
     </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B3,B9,B15,B21)</f>
+        <v>2.3810951681151701E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:U27" si="19">AVERAGE(C3,C9,C15,C21)</f>
+        <v>1.3281632120705173E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="19"/>
+        <v>1.5297960659920624E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="19"/>
+        <v>5.6192127448388099E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="19"/>
+        <v>6.649605218365906E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="19"/>
+        <v>3.8754007653967276E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="19"/>
+        <v>2.1690058863510078E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="19"/>
+        <v>5.6031958189666095E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="19"/>
+        <v>3.9659644404783777E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="19"/>
+        <v>3.3819515418617697E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="19"/>
+        <v>3.2535333100048601E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="19"/>
+        <v>6.0793416565794178E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="19"/>
+        <v>7.9038592628748849E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="19"/>
+        <v>6.8278250436550683E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>4.7716034104225577E-2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="19"/>
+        <v>5.4938365217548926E-2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="19"/>
+        <v>7.0320993175187516E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="19"/>
+        <v>9.574344929724013E-2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="19"/>
+        <v>5.7967085479453201E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="19"/>
+        <v>6.7634571370833049E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(B6,B12,B18,B24)</f>
+        <v>41.509175930589699</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(C6,C12,C18,C24)</f>
+        <v>17.762393343936694</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D6,D12,D18,D24)</f>
+        <v>70.669325233328408</v>
+      </c>
+      <c r="E28">
+        <f>AVERAGE(E6,E12,E18,E24)</f>
+        <v>56.865976246792769</v>
+      </c>
+      <c r="F28">
+        <f>AVERAGE(F6,F12,F18,F24)</f>
+        <v>71.301503828855047</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(G6,G12,G18,G24)</f>
+        <v>21.325871365134606</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGE(H6,H12,H18,H24)</f>
+        <v>36.842508616329141</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(I6,I12,I18,I24)</f>
+        <v>56.406298108952313</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGE(J6,J12,J18,J24)</f>
+        <v>22.912930058530691</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE(K6,K12,K18,K24)</f>
+        <v>23.364355166099664</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(L6,L12,L18,L24)</f>
+        <v>9.9834837800799381</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGE(M6,M12,M18,M24)</f>
+        <v>24.981558224434739</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGE(N6,N12,N18,N24)</f>
+        <v>22.136876903836292</v>
+      </c>
+      <c r="O28">
+        <f>AVERAGE(O6,O12,O18,O24)</f>
+        <v>9.8584261379775384</v>
+      </c>
+      <c r="P28">
+        <f>AVERAGE(P6,P12,P18,P24)</f>
+        <v>27.145356394464116</v>
+      </c>
+      <c r="Q28">
+        <f>AVERAGE(Q6,Q12,Q18,Q24)</f>
+        <v>13.136442242242682</v>
+      </c>
+      <c r="R28">
+        <f>AVERAGE(R6,R12,R18,R24)</f>
+        <v>11.308982350000852</v>
+      </c>
+      <c r="S28">
+        <f>AVERAGE(S6,S12,S18,S24)</f>
+        <v>3.3769946557526644</v>
+      </c>
+      <c r="T28">
+        <f>AVERAGE(T6,T12,T18,T24)</f>
+        <v>47.186500986255993</v>
+      </c>
+      <c r="U28">
+        <f>AVERAGE(U6,U12,U18,U24)</f>
+        <v>33.20913842334167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <f>AVERAGE(B8,B14,B20,B26)</f>
+        <v>40.090276849946505</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C8,C14,C20,C26)</f>
+        <v>19.852968128284658</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D8,D14,D20,D26)</f>
+        <v>70.92181148573377</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(E8,E14,E20,E26)</f>
+        <v>56.770172771595902</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F8,F14,F20,F26)</f>
+        <v>71.203828655829085</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G8,G14,G20,G26)</f>
+        <v>9.0529548854492781</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGE(H8,H14,H20,H26)</f>
+        <v>36.939541957740836</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(I8,I14,I20,I26)</f>
+        <v>44.922883650135489</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(J8,J14,J20,J26)</f>
+        <v>11.718307798500266</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(K8,K14,K20,K26)</f>
+        <v>23.153552504232444</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(L8,L14,L20,L26)</f>
+        <v>8.8197259762025411</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(M8,M14,M20,M26)</f>
+        <v>15.512007120081577</v>
+      </c>
+      <c r="N29">
+        <f>AVERAGE(N8,N14,N20,N26)</f>
+        <v>16.529908693588013</v>
+      </c>
+      <c r="O29">
+        <f>AVERAGE(O8,O14,O20,O26)</f>
+        <v>6.3895411858396125</v>
+      </c>
+      <c r="P29">
+        <f>AVERAGE(P8,P14,P20,P26)</f>
+        <v>32.596685188916652</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(Q8,Q14,Q20,Q26)</f>
+        <v>13.218312722228186</v>
+      </c>
+      <c r="R29">
+        <f>AVERAGE(R8,R14,R20,R26)</f>
+        <v>11.872659864086632</v>
+      </c>
+      <c r="S29">
+        <f>AVERAGE(S8,S14,S20,S26)</f>
+        <v>8.1245140478420854</v>
+      </c>
+      <c r="T29">
+        <f>AVERAGE(T8,T14,T20,T26)</f>
+        <v>51.043222107466093</v>
+      </c>
+      <c r="U29">
+        <f>AVERAGE(U8,U14,U20,U26)</f>
+        <v>33.332716635265022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="b">
+        <f>IF(MIN(B29,B28)&lt;30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <f t="shared" ref="C30:U30" si="20">IF(MIN(C29,C28)&lt;30,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="T30" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f>AVERAGE($N$6,$O$6,$M$6,$S$6,$B$6,$R$6)</f>
+        <v>25.168451876031863</v>
+      </c>
+      <c r="C47">
+        <f>AVERAGE($N$12,$O$12,$M$12,$S$12,$B$12,$R$12)</f>
+        <v>25.68220473656417</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE($N$18,$O$18,$M$18,$S$18,$B$18,$R$18)</f>
+        <v>11.598366864496121</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE($N$24,$O$24,$M$24,$S$24,$B$24,$R$24)</f>
+        <v>12.998985991302369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f>AVERAGE($N$8,$O$8,$M$8,$S$8,$B$8,$R$8)</f>
+        <v>20.629527712859581</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE($N$14,$O$14,$M$14,$S$14,$B$14,$R$14)</f>
+        <v>21.741066995464546</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE($N$20,$O$20,$M$20,$S$20,$B$20,$R$20)</f>
+        <v>9.8346707508289253</v>
+      </c>
+      <c r="E48">
+        <f>AVERAGE($N$26,$O$26,$M$26,$S$26,$B$26,$R$26)</f>
+        <v>13.474006381769895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <f>AVERAGE($E$6,$F$6,$H$6,$I$6,$T$6)</f>
+        <v>63.938272681616596</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE($E$12,$F$12,$H$12,$I$12,$T$12)</f>
+        <v>50.099484259802274</v>
+      </c>
+      <c r="D51">
+        <f>AVERAGE($E$18,$F$18,$H$18,$I$18,$T$18)</f>
+        <v>49.675171775995047</v>
+      </c>
+      <c r="E51">
+        <f>AVERAGE($E$24,$F$24,$H$24,$I$24,$T$24)</f>
+        <v>51.1693015123343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <f>AVERAGE($E$8,$F$8,$H$8,$I$8,$T$8)</f>
+        <v>62.470640149081802</v>
+      </c>
+      <c r="C52">
+        <f>AVERAGE($E$14,$F$14,$H$14,$I$14,$T$14)</f>
+        <v>53.533359767782883</v>
+      </c>
+      <c r="D52">
+        <f>AVERAGE($E$20,$F$20,$H$20,$I$20,$T$20)</f>
+        <v>47.813603402418302</v>
+      </c>
+      <c r="E52">
+        <f>AVERAGE($E$26,$F$26,$H$26,$I$26,$T$26)</f>
+        <v>44.886115994930925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <f>AVERAGE($G$6,$C$6,$L$6)</f>
+        <v>21.019726256314332</v>
+      </c>
+      <c r="C55">
+        <f>AVERAGE($G$12,$C$12,$L$12)</f>
+        <v>16.030566296836692</v>
+      </c>
+      <c r="D55">
+        <f>AVERAGE($G$18,$C$18,$L$18)</f>
+        <v>14.148136052929173</v>
+      </c>
+      <c r="E55">
+        <f>AVERAGE($G$24,$C$24,$L$24)</f>
+        <v>14.230569379454783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <f>AVERAGE($G$8,$C$8,$L$8)</f>
+        <v>12.102637222253867</v>
+      </c>
+      <c r="C56">
+        <f>AVERAGE($G$14,$C$14,$L$14)</f>
+        <v>16.540506028634809</v>
+      </c>
+      <c r="D56">
+        <f>AVERAGE($G$20,$C$20,$L$20)</f>
+        <v>14.545142201380159</v>
+      </c>
+      <c r="E56">
+        <f>AVERAGE($G$26,$C$26,$L$26)</f>
+        <v>7.1125798676464695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59">
+        <f>AVERAGE($D$6,$J$6,$P$6,$K$6,$U$6,$Q$6)</f>
+        <v>41.313021360348294</v>
+      </c>
+      <c r="C59">
+        <f>AVERAGE($D$12,$J$12,$P$12,$K$12,$U$12,$Q$12)</f>
+        <v>35.74607753527571</v>
+      </c>
+      <c r="D59">
+        <f>AVERAGE($D$18,$J$18,$P$18,$K$18,$U$18,$Q$18)</f>
+        <v>24.711649480504054</v>
+      </c>
+      <c r="E59">
+        <f>AVERAGE($D$24,$J$24,$P$24,$K$24,$U$24,$Q$24)</f>
+        <v>25.187616635876754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60">
+        <f>AVERAGE($D$8,$J$8,$P$8,$K$8,$U$8,$Q$8)</f>
+        <v>40.766731512238565</v>
+      </c>
+      <c r="C60">
+        <f>AVERAGE($D$14,$J$14,$P$14,$K$14,$U$14,$Q$14)</f>
+        <v>38.238402622199509</v>
+      </c>
+      <c r="D60">
+        <f>AVERAGE($D$20,$J$20,$P$20,$K$20,$U$20,$Q$20)</f>
+        <v>24.394723246020167</v>
+      </c>
+      <c r="E60">
+        <f>AVERAGE($D$26,$J$26,$P$26,$K$26,$U$26,$Q$26)</f>
+        <v>19.894400176125998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
